--- a/java/JeecgBoot/阿里云对象存储OSS.xlsx
+++ b/java/JeecgBoot/阿里云对象存储OSS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>阿里云管理控制台</t>
   </si>
@@ -27,8 +27,22 @@
     <t>遇到的问题</t>
   </si>
   <si>
-    <t>The OSS Access Key Id you provided does not exist in our records.
-Cause: com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Table 'db_news.oss_file' doesn't exist</t>
+    <t>accessId没有填</t>
+  </si>
+  <si>
+    <t>The OSS Access Key Id you provided does not exist in our records.</t>
+  </si>
+  <si>
+    <t>连接的数据库没有表</t>
+  </si>
+  <si>
+    <t>Cause: com.mysql.jdbc.exceptions.jdbc4.MySQLSyntaxErrorException: Table 'db_news.oss_file' doesn't exist</t>
+  </si>
+  <si>
+    <t>id字段的字符串类型</t>
+  </si>
+  <si>
+    <t>Could not set property 'id' of 'class com.upload.entity.OssFile' with value '1585117197615857665' Cause: java.lang.IllegalArgumentException: argument type mismatch</t>
   </si>
 </sst>
 </file>
@@ -194,12 +208,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -502,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,16 +534,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,10 +555,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,28 +579,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -589,19 +609,16 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -613,43 +630,49 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1197,10 +1220,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1217,15 +1240,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="43.2" spans="1:2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>3</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="28.8" spans="1:2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="43.2" spans="1:2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A28:B28"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId2" display="https://ecs.console.aliyun.com/home" tooltip="https://ecs.console.aliyun.com/home"/>
   </hyperlinks>
